--- a/biology/Botanique/Gomortegaceae/Gomortegaceae.xlsx
+++ b/biology/Botanique/Gomortegaceae/Gomortegaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Gomortégacées regroupe des plantes angiospermes primitives.
 Il existe seulement une espèce dans cette famille, Gomortega keule, qui se trouve dans les provinces du Cauquenes, Ñuble, Concepción et Arauco au centre du Chili. Ce sont de grands arbres, à feuilles persistantes et en danger sérieux d'extinction.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Gomortega, sorte de mot-valise formé de Gom et Ortega, hommage au botaniste et médecin espagnol Casimiro Gómez Ortega (1741-1818) premier professeur du jardin botanique royal de Madrid, a été donné par le naturaliste chilien Juan Ignacio Molina (1740-1829). 
-Par ailleurs le nom spécifique de Gomortega keule a été emprunté aux mapuches, peuple autochtone du Chili et d'Argentine, qui appellent cette plante keule ou queule[1].
+Par ailleurs le nom spécifique de Gomortega keule a été emprunté aux mapuches, peuple autochtone du Chili et d'Argentine, qui appellent cette plante keule ou queule.
 </t>
         </is>
       </c>
